--- a/forms/app/test1.xlsx
+++ b/forms/app/test1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -153,22 +153,74 @@
     <t xml:space="preserve">Description of maternity services</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……… जाँच</t>
-  </si>
-  <si>
-    <t xml:space="preserve">....... Service </t>
-  </si>
-  <si>
     <t xml:space="preserve">select_multiple one</t>
   </si>
   <si>
     <t xml:space="preserve">ch_1</t>
   </si>
   <si>
-    <t xml:space="preserve">please choose </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">कृपया ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">patient_name}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> को अवस्था चयन गर्नुहोस् I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Please select the condition of ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">patient_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">end_group</t>
@@ -183,25 +235,37 @@
     <t xml:space="preserve">c_1</t>
   </si>
   <si>
-    <t xml:space="preserve">choice 1 </t>
+    <t xml:space="preserve">चिन्ता</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety</t>
   </si>
   <si>
     <t xml:space="preserve">c_2</t>
   </si>
   <si>
-    <t xml:space="preserve">choice 2 </t>
+    <t xml:space="preserve">उदासीपन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depression</t>
   </si>
   <si>
     <t xml:space="preserve">c_3</t>
   </si>
   <si>
-    <t xml:space="preserve">choice 3 </t>
+    <t xml:space="preserve">मधुमेह</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
   </si>
   <si>
     <t xml:space="preserve">c_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Choice 4</t>
+    <t xml:space="preserve">उच्च रक्तचाप</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -244,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -283,6 +347,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -305,14 +375,14 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,31 +404,43 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF8E86AE"/>
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E86AE"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
     <fill>
@@ -369,12 +451,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FF8E86AE"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -386,6 +468,13 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -459,35 +548,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,55 +572,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -577,10 +666,10 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB7B3CA"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF93C47D"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -596,12 +685,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFD9EAD3"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF77BC65"/>
@@ -631,7 +720,7 @@
   <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1171,68 +1260,80 @@
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1240,161 +1341,145 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
-      <c r="G27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="18"/>
+      <c r="L32" s="17"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -1402,18 +1487,18 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="15"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="18"/>
+      <c r="L33" s="17"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -1421,18 +1506,18 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="15"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
-      <c r="L34" s="18"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -1440,18 +1525,18 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="15"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
-      <c r="L35" s="18"/>
+      <c r="L35" s="17"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -1459,18 +1544,18 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="15"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="18"/>
+      <c r="L36" s="17"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -1478,11 +1563,11 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
@@ -1497,12 +1582,12 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
@@ -1516,12 +1601,12 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="22"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -1535,18 +1620,18 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="22"/>
-      <c r="F40" s="15"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="18"/>
+      <c r="L40" s="17"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -1554,12 +1639,12 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
@@ -1573,12 +1658,12 @@
       <c r="Q41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="22"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
@@ -1592,18 +1677,18 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="26"/>
       <c r="D43" s="25"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="15"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
-      <c r="L43" s="18"/>
+      <c r="L43" s="17"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -1611,8 +1696,8 @@
       <c r="Q43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -1622,7 +1707,7 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
-      <c r="L44" s="18"/>
+      <c r="L44" s="17"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -2427,20 +2512,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="12.83"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -2451,30 +2533,52 @@
       <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>55</v>
@@ -2482,121 +2586,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="29" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>59</v>
       </c>
+      <c r="C5" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="3"/>
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2629,46 +2643,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
